--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24617446457293</v>
+        <v>2.859924666666667</v>
       </c>
       <c r="H2">
-        <v>2.24617446457293</v>
+        <v>8.579774</v>
       </c>
       <c r="I2">
-        <v>0.4757561713509495</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="J2">
-        <v>0.4757561713509495</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>39.1880986602141</v>
+        <v>11.28709566666667</v>
       </c>
       <c r="N2">
-        <v>39.1880986602141</v>
+        <v>33.861287</v>
       </c>
       <c r="O2">
-        <v>0.9650680597953398</v>
+        <v>0.2158446779538137</v>
       </c>
       <c r="P2">
-        <v>0.9650680597953398</v>
+        <v>0.2158446779538137</v>
       </c>
       <c r="Q2">
-        <v>88.02330652573755</v>
+        <v>32.28024331212644</v>
       </c>
       <c r="R2">
-        <v>88.02330652573755</v>
+        <v>290.5221898091381</v>
       </c>
       <c r="S2">
-        <v>0.4591370852213201</v>
+        <v>0.09699915503170892</v>
       </c>
       <c r="T2">
-        <v>0.4591370852213201</v>
+        <v>0.09699915503170892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24617446457293</v>
+        <v>2.859924666666667</v>
       </c>
       <c r="H3">
-        <v>2.24617446457293</v>
+        <v>8.579774</v>
       </c>
       <c r="I3">
-        <v>0.4757561713509495</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="J3">
-        <v>0.4757561713509495</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41846609183525</v>
+        <v>39.44626233333333</v>
       </c>
       <c r="N3">
-        <v>1.41846609183525</v>
+        <v>118.338787</v>
       </c>
       <c r="O3">
-        <v>0.03493194020466019</v>
+        <v>0.75433628289025</v>
       </c>
       <c r="P3">
-        <v>0.03493194020466019</v>
+        <v>0.75433628289025</v>
       </c>
       <c r="Q3">
-        <v>3.186122314342899</v>
+        <v>112.8133386549042</v>
       </c>
       <c r="R3">
-        <v>3.186122314342899</v>
+        <v>1015.320047894138</v>
       </c>
       <c r="S3">
-        <v>0.01661908612962944</v>
+        <v>0.3389936816777631</v>
       </c>
       <c r="T3">
-        <v>0.01661908612962944</v>
+        <v>0.3389936816777631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.47509790104816</v>
+        <v>2.859924666666667</v>
       </c>
       <c r="H4">
-        <v>2.47509790104816</v>
+        <v>8.579774</v>
       </c>
       <c r="I4">
-        <v>0.5242438286490505</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="J4">
-        <v>0.5242438286490505</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>39.1880986602141</v>
+        <v>0.126152</v>
       </c>
       <c r="N4">
-        <v>39.1880986602141</v>
+        <v>0.378456</v>
       </c>
       <c r="O4">
-        <v>0.9650680597953398</v>
+        <v>0.002412421992102324</v>
       </c>
       <c r="P4">
-        <v>0.9650680597953398</v>
+        <v>0.002412421992102323</v>
       </c>
       <c r="Q4">
-        <v>96.99438073996413</v>
+        <v>0.3607852165493334</v>
       </c>
       <c r="R4">
-        <v>96.99438073996413</v>
+        <v>3.247066948944</v>
       </c>
       <c r="S4">
-        <v>0.5059309745740198</v>
+        <v>0.001084126312643711</v>
       </c>
       <c r="T4">
-        <v>0.5059309745740198</v>
+        <v>0.001084126312643711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -717,52 +717,300 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.47509790104816</v>
+        <v>2.859924666666667</v>
       </c>
       <c r="H5">
-        <v>2.47509790104816</v>
+        <v>8.579774</v>
       </c>
       <c r="I5">
-        <v>0.5242438286490505</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="J5">
-        <v>0.5242438286490505</v>
+        <v>0.4493933135217944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41846609183525</v>
+        <v>1.433165333333333</v>
       </c>
       <c r="N5">
-        <v>1.41846609183525</v>
+        <v>4.299496</v>
       </c>
       <c r="O5">
-        <v>0.03493194020466019</v>
+        <v>0.02740661716383402</v>
       </c>
       <c r="P5">
-        <v>0.03493194020466019</v>
+        <v>0.02740661716383402</v>
       </c>
       <c r="Q5">
-        <v>3.510842446609414</v>
+        <v>4.098744888211555</v>
       </c>
       <c r="R5">
-        <v>3.510842446609414</v>
+        <v>36.888703993904</v>
       </c>
       <c r="S5">
-        <v>0.01831285407503076</v>
+        <v>0.01231635049967865</v>
       </c>
       <c r="T5">
-        <v>0.01831285407503076</v>
+        <v>0.01231635049967865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.504043333333333</v>
+      </c>
+      <c r="H6">
+        <v>10.51213</v>
+      </c>
+      <c r="I6">
+        <v>0.5506066864782057</v>
+      </c>
+      <c r="J6">
+        <v>0.5506066864782055</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>11.28709566666667</v>
+      </c>
+      <c r="N6">
+        <v>33.861287</v>
+      </c>
+      <c r="O6">
+        <v>0.2158446779538137</v>
+      </c>
+      <c r="P6">
+        <v>0.2158446779538137</v>
+      </c>
+      <c r="Q6">
+        <v>39.55047232347889</v>
+      </c>
+      <c r="R6">
+        <v>355.95425091131</v>
+      </c>
+      <c r="S6">
+        <v>0.1188455229221047</v>
+      </c>
+      <c r="T6">
+        <v>0.1188455229221047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.504043333333333</v>
+      </c>
+      <c r="H7">
+        <v>10.51213</v>
+      </c>
+      <c r="I7">
+        <v>0.5506066864782057</v>
+      </c>
+      <c r="J7">
+        <v>0.5506066864782055</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>39.44626233333333</v>
+      </c>
+      <c r="N7">
+        <v>118.338787</v>
+      </c>
+      <c r="O7">
+        <v>0.75433628289025</v>
+      </c>
+      <c r="P7">
+        <v>0.75433628289025</v>
+      </c>
+      <c r="Q7">
+        <v>138.2214125540344</v>
+      </c>
+      <c r="R7">
+        <v>1243.99271298631</v>
+      </c>
+      <c r="S7">
+        <v>0.415342601212487</v>
+      </c>
+      <c r="T7">
+        <v>0.4153426012124868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.504043333333333</v>
+      </c>
+      <c r="H8">
+        <v>10.51213</v>
+      </c>
+      <c r="I8">
+        <v>0.5506066864782057</v>
+      </c>
+      <c r="J8">
+        <v>0.5506066864782055</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.126152</v>
+      </c>
+      <c r="N8">
+        <v>0.378456</v>
+      </c>
+      <c r="O8">
+        <v>0.002412421992102324</v>
+      </c>
+      <c r="P8">
+        <v>0.002412421992102323</v>
+      </c>
+      <c r="Q8">
+        <v>0.4420420745866667</v>
+      </c>
+      <c r="R8">
+        <v>3.97837867128</v>
+      </c>
+      <c r="S8">
+        <v>0.001328295679458612</v>
+      </c>
+      <c r="T8">
+        <v>0.001328295679458612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.504043333333333</v>
+      </c>
+      <c r="H9">
+        <v>10.51213</v>
+      </c>
+      <c r="I9">
+        <v>0.5506066864782057</v>
+      </c>
+      <c r="J9">
+        <v>0.5506066864782055</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.433165333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.299496</v>
+      </c>
+      <c r="O9">
+        <v>0.02740661716383402</v>
+      </c>
+      <c r="P9">
+        <v>0.02740661716383402</v>
+      </c>
+      <c r="Q9">
+        <v>5.021873431831111</v>
+      </c>
+      <c r="R9">
+        <v>45.19686088647999</v>
+      </c>
+      <c r="S9">
+        <v>0.01509026666415537</v>
+      </c>
+      <c r="T9">
+        <v>0.01509026666415536</v>
       </c>
     </row>
   </sheetData>
